--- a/KOPIS 공공데이터.xlsx
+++ b/KOPIS 공공데이터.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="208">
   <si>
     <t>AG002086</t>
   </si>
@@ -742,6 +742,14 @@
   </si>
   <si>
     <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mt20id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mt40id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1076,6 +1084,66 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1096,66 +1164,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1558,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:E74"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1569,7 +1577,7 @@
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="43"/>
+    <col min="12" max="12" width="8.88671875" style="36"/>
     <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="76.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -1604,18 +1612,18 @@
       <c r="K1" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="34" t="s">
         <v>163</v>
       </c>
       <c r="M1" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="30" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="50" t="s">
         <v>160</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -1636,18 +1644,18 @@
       <c r="K2" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2" s="35">
         <v>10</v>
       </c>
       <c r="M2" s="18">
         <v>0</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="31" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="26" t="s">
         <v>155</v>
       </c>
@@ -1666,18 +1674,18 @@
       <c r="K3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="35">
         <v>11</v>
       </c>
       <c r="M3" s="18">
         <v>0</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="31" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="26" t="s">
         <v>152</v>
       </c>
@@ -1694,16 +1702,16 @@
       <c r="K4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="35">
         <v>150</v>
       </c>
       <c r="M4" s="18">
         <v>0</v>
       </c>
-      <c r="N4" s="38"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="24" t="s">
         <v>150</v>
       </c>
@@ -1722,18 +1730,18 @@
       <c r="K5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="35">
         <v>40</v>
       </c>
       <c r="M5" s="18">
         <v>0</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="24" t="s">
         <v>146</v>
       </c>
@@ -1750,16 +1758,16 @@
       <c r="K6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="35">
         <v>30</v>
       </c>
       <c r="M6" s="18">
         <v>0</v>
       </c>
-      <c r="N6" s="38"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="25" t="s">
         <v>144</v>
       </c>
@@ -1778,16 +1786,16 @@
       <c r="K7" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="35">
         <v>5</v>
       </c>
       <c r="M7" s="18">
         <v>0</v>
       </c>
-      <c r="N7" s="38"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="31"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="25" t="s">
         <v>142</v>
       </c>
@@ -1804,14 +1812,14 @@
       <c r="K8" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="42"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="18">
         <v>0</v>
       </c>
-      <c r="N8" s="38"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="25" t="s">
         <v>140</v>
       </c>
@@ -1832,18 +1840,18 @@
       <c r="K9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="35">
         <v>10</v>
       </c>
       <c r="M9" s="18">
         <v>0</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="31" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="25" t="s">
         <v>137</v>
       </c>
@@ -1860,16 +1868,16 @@
       <c r="K10" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="35">
         <v>10</v>
       </c>
       <c r="M10" s="18">
         <v>0</v>
       </c>
-      <c r="N10" s="38"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="25" t="s">
         <v>134</v>
       </c>
@@ -1888,16 +1896,16 @@
       <c r="K11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="35">
         <v>3</v>
       </c>
       <c r="M11" s="18">
         <v>0</v>
       </c>
-      <c r="N11" s="38"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="25" t="s">
         <v>132</v>
       </c>
@@ -1916,16 +1924,16 @@
       <c r="K12" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="35">
         <v>3</v>
       </c>
       <c r="M12" s="18">
         <v>0</v>
       </c>
-      <c r="N12" s="38"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="25" t="s">
         <v>129</v>
       </c>
@@ -1944,18 +1952,18 @@
       <c r="K13" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="35">
         <v>1</v>
       </c>
       <c r="M13" s="18">
         <v>0</v>
       </c>
-      <c r="N13" s="38" t="s">
+      <c r="N13" s="31" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="24" t="s">
         <v>125</v>
       </c>
@@ -1974,14 +1982,14 @@
       <c r="K14" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="L14" s="42"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="18">
         <v>0</v>
       </c>
-      <c r="N14" s="38"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="24" t="s">
         <v>121</v>
       </c>
@@ -2000,15 +2008,15 @@
       <c r="K15" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="42"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="18">
         <v>0</v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="52" t="s">
         <v>117</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -2017,7 +2025,7 @@
       <c r="C17" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="37">
         <v>12</v>
       </c>
       <c r="E17" s="13" t="s">
@@ -2033,7 +2041,7 @@
       <c r="K17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="37">
         <v>12</v>
       </c>
       <c r="M17" s="14"/>
@@ -2042,14 +2050,14 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="37">
         <v>100</v>
       </c>
       <c r="E18" s="13" t="s">
@@ -2063,7 +2071,7 @@
       <c r="K18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="37">
         <v>100</v>
       </c>
       <c r="M18" s="14"/>
@@ -2072,14 +2080,14 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="37">
         <v>10</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -2093,7 +2101,7 @@
       <c r="K19" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="37">
         <v>10</v>
       </c>
       <c r="M19" s="14" t="s">
@@ -2104,14 +2112,14 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="37">
         <v>10</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -2125,7 +2133,7 @@
       <c r="K20" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="44">
+      <c r="L20" s="37">
         <v>10</v>
       </c>
       <c r="M20" s="14" t="s">
@@ -2136,14 +2144,14 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="37">
         <v>60</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -2157,7 +2165,7 @@
       <c r="K21" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="37">
         <v>60</v>
       </c>
       <c r="M21" s="14"/>
@@ -2166,14 +2174,14 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="37">
         <v>100</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -2187,7 +2195,7 @@
       <c r="K22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="37">
         <v>100</v>
       </c>
       <c r="M22" s="14"/>
@@ -2196,14 +2204,14 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="37">
         <v>10</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -2217,7 +2225,7 @@
       <c r="K23" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="37">
         <v>10</v>
       </c>
       <c r="M23" s="14"/>
@@ -2226,14 +2234,14 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="37">
         <v>6</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -2247,7 +2255,7 @@
       <c r="K24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L24" s="44">
+      <c r="L24" s="37">
         <v>6</v>
       </c>
       <c r="M24" s="14"/>
@@ -2256,14 +2264,14 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="37">
         <v>1</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -2277,7 +2285,7 @@
       <c r="K25" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="37">
         <v>1</v>
       </c>
       <c r="M25" s="14"/>
@@ -2286,10 +2294,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="44"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -2297,19 +2305,19 @@
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="44"/>
+      <c r="L26" s="37"/>
       <c r="M26" s="14"/>
       <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="37">
         <v>10</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -2323,7 +2331,7 @@
       <c r="K27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L27" s="44">
+      <c r="L27" s="37">
         <v>10</v>
       </c>
       <c r="M27" s="14"/>
@@ -2332,14 +2340,14 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="13" t="s">
         <v>107</v>
       </c>
@@ -2351,21 +2359,21 @@
       <c r="K28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="44"/>
+      <c r="L28" s="37"/>
       <c r="M28" s="14"/>
       <c r="N28" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="13" t="s">
         <v>104</v>
       </c>
@@ -2377,21 +2385,21 @@
       <c r="K29" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="44"/>
+      <c r="L29" s="37"/>
       <c r="M29" s="14"/>
       <c r="N29" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="13" t="s">
         <v>101</v>
       </c>
@@ -2403,21 +2411,21 @@
       <c r="K30" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="44"/>
+      <c r="L30" s="37"/>
       <c r="M30" s="14"/>
       <c r="N30" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="44"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="13" t="s">
         <v>99</v>
       </c>
@@ -2429,21 +2437,21 @@
       <c r="K31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L31" s="44"/>
+      <c r="L31" s="37"/>
       <c r="M31" s="14"/>
       <c r="N31" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="13" t="s">
         <v>97</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="37">
         <v>100</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -2459,7 +2467,7 @@
       <c r="K32" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="44">
+      <c r="L32" s="37">
         <v>100</v>
       </c>
       <c r="M32" s="14"/>
@@ -2468,14 +2476,14 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="13" t="s">
         <v>94</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="37">
         <v>30</v>
       </c>
       <c r="E33" s="13" t="s">
@@ -2491,7 +2499,7 @@
       <c r="K33" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="37">
         <v>30</v>
       </c>
       <c r="M33" s="14"/>
@@ -2500,14 +2508,14 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="37">
         <v>10</v>
       </c>
       <c r="E34" s="13" t="s">
@@ -2521,7 +2529,7 @@
       <c r="K34" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="44">
+      <c r="L34" s="37">
         <v>10</v>
       </c>
       <c r="M34" s="14" t="s">
@@ -2532,14 +2540,14 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="44">
+      <c r="D35" s="37">
         <v>12</v>
       </c>
       <c r="E35" s="13" t="s">
@@ -2553,7 +2561,7 @@
       <c r="K35" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L35" s="44">
+      <c r="L35" s="37">
         <v>12</v>
       </c>
       <c r="M35" s="14"/>
@@ -2562,14 +2570,14 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="37">
         <v>20</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -2583,7 +2591,7 @@
       <c r="K36" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L36" s="44">
+      <c r="L36" s="37">
         <v>20</v>
       </c>
       <c r="M36" s="14"/>
@@ -2592,14 +2600,14 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="44">
+      <c r="D37" s="37">
         <v>6</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -2613,7 +2621,7 @@
       <c r="K37" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L37" s="44">
+      <c r="L37" s="37">
         <v>6</v>
       </c>
       <c r="M37" s="14"/>
@@ -2622,14 +2630,14 @@
       </c>
     </row>
     <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="32"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="44"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="13" t="s">
         <v>74</v>
       </c>
@@ -2641,21 +2649,21 @@
       <c r="K38" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="L38" s="44"/>
+      <c r="L38" s="37"/>
       <c r="M38" s="14"/>
       <c r="N38" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="32"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="13" t="s">
         <v>71</v>
       </c>
@@ -2669,19 +2677,19 @@
       <c r="K39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="44"/>
+      <c r="L39" s="37"/>
       <c r="M39" s="14"/>
       <c r="N39" s="13"/>
     </row>
     <row r="40" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="32"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="13" t="s">
         <v>12</v>
       </c>
@@ -2693,21 +2701,21 @@
       <c r="K40" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L40" s="44"/>
+      <c r="L40" s="37"/>
       <c r="M40" s="14"/>
       <c r="N40" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="32"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="44"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="13" t="s">
         <v>64</v>
       </c>
@@ -2719,21 +2727,21 @@
       <c r="K41" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="L41" s="44"/>
+      <c r="L41" s="37"/>
       <c r="M41" s="14"/>
       <c r="N41" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="32"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="44"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="13" t="s">
         <v>60</v>
       </c>
@@ -2745,19 +2753,19 @@
       <c r="K42" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L42" s="44"/>
+      <c r="L42" s="37"/>
       <c r="M42" s="14"/>
       <c r="N42" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="32"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="45"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="15" t="s">
         <v>57</v>
       </c>
@@ -2767,19 +2775,19 @@
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="17"/>
-      <c r="L43" s="45"/>
+      <c r="L43" s="38"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="40"/>
+      <c r="N43" s="33"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="32"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="44">
+      <c r="D44" s="37">
         <v>100</v>
       </c>
       <c r="E44" s="13" t="s">
@@ -2793,7 +2801,7 @@
       <c r="K44" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L44" s="44">
+      <c r="L44" s="37">
         <v>100</v>
       </c>
       <c r="M44" s="14"/>
@@ -2802,14 +2810,14 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A45" s="32"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="37">
         <v>100</v>
       </c>
       <c r="E45" s="13" t="s">
@@ -2823,7 +2831,7 @@
       <c r="K45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L45" s="44">
+      <c r="L45" s="37">
         <v>100</v>
       </c>
       <c r="M45" s="14"/>
@@ -2832,14 +2840,14 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="32"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="44">
+      <c r="D46" s="37">
         <v>100</v>
       </c>
       <c r="E46" s="13" t="s">
@@ -2853,7 +2861,7 @@
       <c r="K46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L46" s="44">
+      <c r="L46" s="37">
         <v>100</v>
       </c>
       <c r="M46" s="14"/>
@@ -2862,14 +2870,14 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="32"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="45">
+      <c r="D47" s="38">
         <v>100</v>
       </c>
       <c r="E47" s="15" t="s">
@@ -2883,7 +2891,7 @@
       <c r="K47" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L47" s="45">
+      <c r="L47" s="38">
         <v>100</v>
       </c>
       <c r="M47" s="16"/>
@@ -2892,14 +2900,14 @@
       </c>
     </row>
     <row r="48" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="44">
+      <c r="D48" s="37">
         <v>60</v>
       </c>
       <c r="E48" s="13" t="s">
@@ -2913,7 +2921,7 @@
       <c r="K48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L48" s="44">
+      <c r="L48" s="37">
         <v>60</v>
       </c>
       <c r="M48" s="14"/>
@@ -2926,10 +2934,10 @@
       <c r="D49"/>
     </row>
     <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="40" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -2951,7 +2959,7 @@
       <c r="K50" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L50" s="46">
+      <c r="L50" s="39">
         <v>100</v>
       </c>
       <c r="M50" s="3"/>
@@ -2960,7 +2968,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="11" t="s">
         <v>37</v>
       </c>
@@ -2985,7 +2993,7 @@
       <c r="K51" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L51" s="46">
+      <c r="L51" s="39">
         <v>10</v>
       </c>
       <c r="M51" s="3"/>
@@ -2994,7 +3002,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="35"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="9" t="s">
         <v>34</v>
       </c>
@@ -3015,7 +3023,7 @@
       <c r="K52" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L52" s="46">
+      <c r="L52" s="39">
         <v>2</v>
       </c>
       <c r="M52" s="3" t="s">
@@ -3026,7 +3034,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="35"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="10" t="s">
         <v>31</v>
       </c>
@@ -3047,7 +3055,7 @@
       <c r="K53" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L53" s="46">
+      <c r="L53" s="39">
         <v>10</v>
       </c>
       <c r="M53" s="3"/>
@@ -3056,7 +3064,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="9" t="s">
         <v>28</v>
       </c>
@@ -3077,7 +3085,7 @@
       <c r="K54" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L54" s="46">
+      <c r="L54" s="39">
         <v>5</v>
       </c>
       <c r="M54" s="3"/>
@@ -3086,7 +3094,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="10" t="s">
         <v>25</v>
       </c>
@@ -3107,7 +3115,7 @@
       <c r="K55" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L55" s="46">
+      <c r="L55" s="39">
         <v>10</v>
       </c>
       <c r="M55" s="3"/>
@@ -3116,7 +3124,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="36"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="9" t="s">
         <v>22</v>
       </c>
@@ -3137,7 +3145,7 @@
       <c r="K56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L56" s="46">
+      <c r="L56" s="39">
         <v>4</v>
       </c>
       <c r="M56" s="3"/>
@@ -3146,7 +3154,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="54" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -3155,7 +3163,7 @@
       <c r="C57" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="46">
+      <c r="D57" s="39">
         <v>30</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -3169,7 +3177,7 @@
       <c r="K57" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L57" s="46">
+      <c r="L57" s="39">
         <v>30</v>
       </c>
       <c r="M57" s="3"/>
@@ -3178,14 +3186,14 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="46">
+      <c r="D58" s="39">
         <v>20</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -3201,7 +3209,7 @@
       <c r="K58" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L58" s="46">
+      <c r="L58" s="39">
         <v>20</v>
       </c>
       <c r="M58" s="3"/>
@@ -3210,14 +3218,14 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="35"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="46">
+      <c r="D59" s="39">
         <v>10</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -3233,7 +3241,7 @@
       <c r="K59" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L59" s="46">
+      <c r="L59" s="39">
         <v>10</v>
       </c>
       <c r="M59" s="3"/>
@@ -3242,14 +3250,14 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A60" s="35"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="46">
+      <c r="D60" s="39">
         <v>15</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -3263,7 +3271,7 @@
       <c r="K60" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L60" s="46">
+      <c r="L60" s="39">
         <v>15</v>
       </c>
       <c r="M60" s="3"/>
@@ -3272,14 +3280,14 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61" s="35"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="46">
+      <c r="D61" s="39">
         <v>100</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -3293,7 +3301,7 @@
       <c r="K61" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L61" s="46">
+      <c r="L61" s="39">
         <v>100</v>
       </c>
       <c r="M61" s="3"/>
@@ -3302,14 +3310,14 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A62" s="36"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="46">
+      <c r="D62" s="39">
         <v>10</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -3325,7 +3333,7 @@
       <c r="K62" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L62" s="46">
+      <c r="L62" s="39">
         <v>10</v>
       </c>
       <c r="M62" s="3"/>
@@ -3334,350 +3342,350 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D64" s="35">
         <v>100</v>
       </c>
-      <c r="E64" s="48" t="s">
+      <c r="E64" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
       <c r="K64" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L64" s="42">
+      <c r="L64" s="35">
         <v>100</v>
       </c>
-      <c r="M64" s="49"/>
-      <c r="N64" s="48" t="s">
+      <c r="M64" s="42"/>
+      <c r="N64" s="41" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65" s="31"/>
-      <c r="B65" s="56" t="s">
+      <c r="A65" s="51"/>
+      <c r="B65" s="46" t="s">
         <v>187</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="42">
+      <c r="D65" s="35">
         <v>10</v>
       </c>
-      <c r="E65" s="48" t="s">
+      <c r="E65" s="41" t="s">
         <v>36</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
       <c r="K65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L65" s="42">
+      <c r="L65" s="35">
         <v>10</v>
       </c>
-      <c r="M65" s="49"/>
-      <c r="N65" s="48" t="s">
+      <c r="M65" s="42"/>
+      <c r="N65" s="41" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="31"/>
-      <c r="B66" s="48" t="s">
+      <c r="A66" s="51"/>
+      <c r="B66" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="D66" s="50">
+      <c r="D66" s="43">
         <v>2</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49" t="s">
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="L66" s="50">
+      <c r="L66" s="43">
         <v>2</v>
       </c>
-      <c r="M66" s="49"/>
-      <c r="N66" s="48">
+      <c r="M66" s="42"/>
+      <c r="N66" s="41">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A67" s="31"/>
-      <c r="B67" s="48" t="s">
+      <c r="A67" s="51"/>
+      <c r="B67" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="50">
+      <c r="C67" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="43">
         <v>30</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="L67" s="50">
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L67" s="43">
         <v>30</v>
       </c>
-      <c r="M67" s="49"/>
-      <c r="N67" s="48" t="s">
+      <c r="M67" s="42"/>
+      <c r="N67" s="41" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A68" s="31"/>
-      <c r="B68" s="48" t="s">
+      <c r="A68" s="51"/>
+      <c r="B68" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D68" s="43">
         <v>5</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49" t="s">
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="L68" s="50">
+      <c r="L68" s="43">
         <v>4</v>
       </c>
-      <c r="M68" s="49"/>
-      <c r="N68" s="48">
+      <c r="M68" s="42"/>
+      <c r="N68" s="41">
         <v>1986</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A69" s="31"/>
-      <c r="B69" s="51" t="s">
+      <c r="A69" s="51"/>
+      <c r="B69" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="50">
+      <c r="C69" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="43">
         <v>12</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49" t="s">
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="L69" s="50">
+      <c r="L69" s="43">
         <v>5</v>
       </c>
-      <c r="M69" s="49"/>
-      <c r="N69" s="48">
+      <c r="M69" s="42"/>
+      <c r="N69" s="41">
         <v>32349</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A70" s="31"/>
-      <c r="B70" s="48" t="s">
+      <c r="A70" s="51"/>
+      <c r="B70" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="50">
+      <c r="C70" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="43">
         <v>100</v>
       </c>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="L70" s="50">
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L70" s="43">
         <v>12</v>
       </c>
-      <c r="M70" s="49"/>
-      <c r="N70" s="48" t="s">
+      <c r="M70" s="42"/>
+      <c r="N70" s="41" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A71" s="31"/>
-      <c r="B71" s="48" t="s">
+      <c r="A71" s="51"/>
+      <c r="B71" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="D71" s="50">
+      <c r="D71" s="43">
         <v>60</v>
       </c>
-      <c r="E71" s="48" t="s">
+      <c r="E71" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="L71" s="50">
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="43">
         <v>100</v>
       </c>
-      <c r="M71" s="49"/>
-      <c r="N71" s="48" t="s">
+      <c r="M71" s="42"/>
+      <c r="N71" s="41" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A72" s="31"/>
-      <c r="B72" s="48" t="s">
+      <c r="A72" s="51"/>
+      <c r="B72" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D72" s="50">
+      <c r="D72" s="43">
         <v>4</v>
       </c>
-      <c r="E72" s="48" t="s">
+      <c r="E72" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49" t="s">
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="L72" s="50">
+      <c r="L72" s="43">
         <v>60</v>
       </c>
-      <c r="M72" s="49"/>
-      <c r="N72" s="48" t="s">
+      <c r="M72" s="42"/>
+      <c r="N72" s="41" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A73" s="31"/>
-      <c r="B73" s="48" t="s">
+      <c r="A73" s="51"/>
+      <c r="B73" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="D73" s="50">
+      <c r="D73" s="43">
         <v>10</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49" t="s">
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="L73" s="50">
+      <c r="L73" s="43">
         <v>10</v>
       </c>
-      <c r="M73" s="49"/>
-      <c r="N73" s="48">
+      <c r="M73" s="42"/>
+      <c r="N73" s="41">
         <v>37.521120000000003</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A74" s="31"/>
-      <c r="B74" s="48" t="s">
+      <c r="A74" s="51"/>
+      <c r="B74" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="42">
+      <c r="C74" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="35">
         <v>10</v>
       </c>
-      <c r="E74" s="48" t="s">
+      <c r="E74" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L74" s="42">
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L74" s="35">
         <v>10</v>
       </c>
-      <c r="M74" s="38"/>
-      <c r="N74" s="48">
+      <c r="M74" s="31"/>
+      <c r="N74" s="41">
         <v>127.1283636</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A76" s="53" t="s">
+      <c r="A76" s="47" t="s">
         <v>193</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="44">
+      <c r="D76" s="37">
         <v>12</v>
       </c>
       <c r="E76" s="13" t="s">
@@ -3693,23 +3701,25 @@
       <c r="K76" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L76" s="44">
+      <c r="L76" s="37">
         <v>12</v>
       </c>
-      <c r="M76" s="14"/>
-      <c r="N76" s="38" t="s">
+      <c r="M76" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="N76" s="31" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A77" s="54"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D77" s="44">
+      <c r="D77" s="37">
         <v>100</v>
       </c>
       <c r="E77" s="13" t="s">
@@ -3723,23 +3733,23 @@
       <c r="K77" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L77" s="44">
+      <c r="L77" s="37">
         <v>100</v>
       </c>
       <c r="M77" s="14"/>
-      <c r="N77" s="38" t="s">
+      <c r="N77" s="31" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A78" s="54"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="13" t="s">
         <v>105</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="44">
+      <c r="D78" s="37">
         <v>10</v>
       </c>
       <c r="E78" s="13" t="s">
@@ -3753,25 +3763,25 @@
       <c r="K78" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L78" s="44">
+      <c r="L78" s="37">
         <v>10</v>
       </c>
       <c r="M78" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="N78" s="38" t="s">
+      <c r="N78" s="31" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A79" s="54"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="44">
+      <c r="D79" s="37">
         <v>10</v>
       </c>
       <c r="E79" s="13" t="s">
@@ -3785,25 +3795,25 @@
       <c r="K79" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="L79" s="44">
+      <c r="L79" s="37">
         <v>10</v>
       </c>
       <c r="M79" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="N79" s="38" t="s">
+      <c r="N79" s="31" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A80" s="54"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D80" s="44">
+      <c r="D80" s="37">
         <v>60</v>
       </c>
       <c r="E80" s="13" t="s">
@@ -3817,23 +3827,23 @@
       <c r="K80" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L80" s="44">
+      <c r="L80" s="37">
         <v>60</v>
       </c>
       <c r="M80" s="14"/>
-      <c r="N80" s="38" t="s">
+      <c r="N80" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A81" s="54"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="44">
+      <c r="D81" s="37">
         <v>100</v>
       </c>
       <c r="E81" s="13" t="s">
@@ -3847,23 +3857,23 @@
       <c r="K81" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L81" s="44">
+      <c r="L81" s="37">
         <v>100</v>
       </c>
       <c r="M81" s="14"/>
-      <c r="N81" s="38" t="s">
+      <c r="N81" s="31" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A82" s="54"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="44">
+      <c r="D82" s="37">
         <v>10</v>
       </c>
       <c r="E82" s="13" t="s">
@@ -3877,23 +3887,23 @@
       <c r="K82" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="L82" s="44">
+      <c r="L82" s="37">
         <v>10</v>
       </c>
       <c r="M82" s="14"/>
-      <c r="N82" s="38" t="s">
+      <c r="N82" s="31" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A83" s="54"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D83" s="44">
+      <c r="D83" s="37">
         <v>6</v>
       </c>
       <c r="E83" s="13" t="s">
@@ -3907,23 +3917,23 @@
       <c r="K83" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L83" s="44">
+      <c r="L83" s="37">
         <v>6</v>
       </c>
       <c r="M83" s="14"/>
-      <c r="N83" s="38" t="s">
+      <c r="N83" s="31" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A84" s="55"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="13" t="s">
         <v>194</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D84" s="44">
+      <c r="D84" s="37">
         <v>1</v>
       </c>
       <c r="E84" s="13" t="s">
@@ -3937,17 +3947,17 @@
       <c r="K84" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L84" s="44">
+      <c r="L84" s="37">
         <v>1</v>
       </c>
       <c r="M84" s="14"/>
-      <c r="N84" s="38"/>
+      <c r="N84" s="31"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E85" s="52" t="s">
+      <c r="E85" s="45" t="s">
         <v>204</v>
       </c>
     </row>
